--- a/output/1Y_P52_KFSDIV.xlsx
+++ b/output/1Y_P52_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>15.3877</v>
       </c>
       <c r="C2" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D2" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>14.6367</v>
       </c>
       <c r="C3" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D3" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E3" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="F3" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="H3" s="1">
-        <v>9511.947899999999</v>
+        <v>9473.943600000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9511.947899999999</v>
+        <v>9473.943600000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0488</v>
+        <v>-0.0526</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>13.0061</v>
       </c>
       <c r="C4" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D4" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E4" s="1">
-        <v>1333.0838</v>
+        <v>1330.4207</v>
       </c>
       <c r="F4" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="H4" s="1">
-        <v>17338.2214</v>
+        <v>17268.9937</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17338.2214</v>
+        <v>17268.9937</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>15.0028</v>
+        <v>15.0328</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>292.4414</v>
+        <v>291.8572</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9707.5586</v>
+        <v>-9708.1428</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.1114</v>
+        <v>-0.1132</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>13.835</v>
       </c>
       <c r="C5" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D5" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E5" s="1">
-        <v>2101.9538</v>
+        <v>2097.7508</v>
       </c>
       <c r="F5" s="1">
-        <v>725.1531</v>
+        <v>723.6994999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>29080.5309</v>
+        <v>28964.2753</v>
       </c>
       <c r="I5" s="1">
-        <v>292.4414</v>
+        <v>291.8572</v>
       </c>
       <c r="J5" s="1">
-        <v>29372.9723</v>
+        <v>29256.1325</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.2724</v>
+        <v>14.301</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10032.4935</v>
+        <v>-10032.4286</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.07439999999999999</v>
+        <v>0.07290000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>14.4216</v>
       </c>
       <c r="C6" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D6" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E6" s="1">
-        <v>2827.1069</v>
+        <v>2821.4503</v>
       </c>
       <c r="F6" s="1">
-        <v>695.6575</v>
+        <v>694.2617</v>
       </c>
       <c r="H6" s="1">
-        <v>40771.4053</v>
+        <v>40608.5701</v>
       </c>
       <c r="I6" s="1">
-        <v>259.9479</v>
+        <v>259.4286</v>
       </c>
       <c r="J6" s="1">
-        <v>41031.3532</v>
+        <v>40867.9987</v>
       </c>
       <c r="K6" s="1">
-        <v>40032.4935</v>
+        <v>40032.4286</v>
       </c>
       <c r="L6" s="1">
-        <v>14.1602</v>
+        <v>14.1886</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10032.4935</v>
+        <v>-10032.4286</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0421</v>
+        <v>0.0411</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>13.2404</v>
       </c>
       <c r="C7" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D7" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E7" s="1">
-        <v>3522.7644</v>
+        <v>3515.712</v>
       </c>
       <c r="F7" s="1">
-        <v>757.7183</v>
+        <v>756.1999</v>
       </c>
       <c r="H7" s="1">
-        <v>46642.8095</v>
+        <v>46456.2669</v>
       </c>
       <c r="I7" s="1">
-        <v>227.4544</v>
+        <v>227</v>
       </c>
       <c r="J7" s="1">
-        <v>46870.2639</v>
+        <v>46683.2669</v>
       </c>
       <c r="K7" s="1">
-        <v>50064.987</v>
+        <v>50064.8572</v>
       </c>
       <c r="L7" s="1">
-        <v>14.2118</v>
+        <v>14.2403</v>
       </c>
       <c r="M7" s="1">
         <v>0.4</v>
       </c>
       <c r="N7" s="1">
-        <v>1017.7585</v>
+        <v>1015.7221</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9014.735000000001</v>
+        <v>-9016.7065</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0815</v>
+        <v>-0.0823</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>12.382</v>
       </c>
       <c r="C8" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D8" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E8" s="1">
-        <v>4280.4827</v>
+        <v>4271.9119</v>
       </c>
       <c r="F8" s="1">
-        <v>823.9477000000001</v>
+        <v>822.2681</v>
       </c>
       <c r="H8" s="1">
-        <v>53000.9367</v>
+        <v>52788.8699</v>
       </c>
       <c r="I8" s="1">
-        <v>1212.7194</v>
+        <v>1210.2936</v>
       </c>
       <c r="J8" s="1">
-        <v>54213.6561</v>
+        <v>53999.1635</v>
       </c>
       <c r="K8" s="1">
-        <v>60097.4805</v>
+        <v>60097.2857</v>
       </c>
       <c r="L8" s="1">
-        <v>14.0399</v>
+        <v>14.068</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10202.1199</v>
+        <v>-10201.7156</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0467</v>
+        <v>-0.0474</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>11.9583</v>
       </c>
       <c r="C9" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D9" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E9" s="1">
-        <v>5104.4303</v>
+        <v>5094.18</v>
       </c>
       <c r="F9" s="1">
-        <v>853.1413</v>
+        <v>851.3988000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>61040.3094</v>
+        <v>60795.9817</v>
       </c>
       <c r="I9" s="1">
-        <v>1010.5995</v>
+        <v>1008.578</v>
       </c>
       <c r="J9" s="1">
-        <v>62050.9089</v>
+        <v>61804.5597</v>
       </c>
       <c r="K9" s="1">
-        <v>70299.6004</v>
+        <v>70299.0013</v>
       </c>
       <c r="L9" s="1">
-        <v>13.7723</v>
+        <v>13.7999</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10202.1199</v>
+        <v>-10201.7156</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0337</v>
+        <v>-0.0343</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>12.2036</v>
       </c>
       <c r="C10" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D10" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E10" s="1">
-        <v>5957.5717</v>
+        <v>5945.5788</v>
       </c>
       <c r="F10" s="1">
-        <v>835.9926</v>
+        <v>834.2846</v>
       </c>
       <c r="H10" s="1">
-        <v>72703.8216</v>
+        <v>72412.393</v>
       </c>
       <c r="I10" s="1">
-        <v>808.4796</v>
+        <v>806.8624</v>
       </c>
       <c r="J10" s="1">
-        <v>73512.3012</v>
+        <v>73219.25539999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80501.7203</v>
+        <v>80500.7169</v>
       </c>
       <c r="L10" s="1">
-        <v>13.5125</v>
+        <v>13.5396</v>
       </c>
       <c r="M10" s="1">
         <v>0.4</v>
       </c>
       <c r="N10" s="1">
-        <v>1837.5949</v>
+        <v>1833.9048</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8364.525</v>
+        <v>-8367.810799999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0203</v>
+        <v>0.0197</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>12.9136</v>
       </c>
       <c r="C11" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D11" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E11" s="1">
-        <v>6793.5643</v>
+        <v>6779.8634</v>
       </c>
       <c r="F11" s="1">
-        <v>837.4622000000001</v>
+        <v>835.6596</v>
       </c>
       <c r="H11" s="1">
-        <v>87729.3722</v>
+        <v>87377.5232</v>
       </c>
       <c r="I11" s="1">
-        <v>2443.9546</v>
+        <v>2439.0516</v>
       </c>
       <c r="J11" s="1">
-        <v>90173.3268</v>
+        <v>89816.5748</v>
       </c>
       <c r="K11" s="1">
-        <v>90703.84020000001</v>
+        <v>90702.4325</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3514</v>
+        <v>13.3782</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10814.6515</v>
+        <v>-10813.0172</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0798</v>
+        <v>0.0793</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>13.4338</v>
       </c>
       <c r="C12" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D12" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E12" s="1">
-        <v>7631.0265</v>
+        <v>7615.523</v>
       </c>
       <c r="F12" s="1">
-        <v>805.0329</v>
+        <v>803.3027</v>
       </c>
       <c r="H12" s="1">
-        <v>102513.6837</v>
+        <v>102100.5548</v>
       </c>
       <c r="I12" s="1">
-        <v>1629.3031</v>
+        <v>1626.0344</v>
       </c>
       <c r="J12" s="1">
-        <v>104142.9868</v>
+        <v>103726.5892</v>
       </c>
       <c r="K12" s="1">
-        <v>101518.4917</v>
+        <v>101515.4497</v>
       </c>
       <c r="L12" s="1">
-        <v>13.3034</v>
+        <v>13.3301</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10814.6515</v>
+        <v>-10813.0172</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0396</v>
+        <v>0.0392</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>12.9657</v>
       </c>
       <c r="C13" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D13" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E13" s="1">
-        <v>8436.0594</v>
+        <v>8418.825699999999</v>
       </c>
       <c r="F13" s="1">
-        <v>834.097</v>
+        <v>832.3019</v>
       </c>
       <c r="H13" s="1">
-        <v>109379.4159</v>
+        <v>108937.9208</v>
       </c>
       <c r="I13" s="1">
-        <v>814.6515000000001</v>
+        <v>813.0172</v>
       </c>
       <c r="J13" s="1">
-        <v>110194.0674</v>
+        <v>109750.938</v>
       </c>
       <c r="K13" s="1">
-        <v>112333.1432</v>
+        <v>112328.4669</v>
       </c>
       <c r="L13" s="1">
-        <v>13.3158</v>
+        <v>13.3425</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2060.3772</v>
+        <v>2056.1912</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8754.2744</v>
+        <v>-8756.825999999999</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0346</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>13.3568</v>
       </c>
       <c r="C14" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D14" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E14" s="1">
-        <v>9270.1564</v>
+        <v>9251.1276</v>
       </c>
       <c r="F14" s="1">
-        <v>-9270.1564</v>
+        <v>-9251.1276</v>
       </c>
       <c r="H14" s="1">
-        <v>123819.6256</v>
+        <v>123318.4567</v>
       </c>
       <c r="I14" s="1">
-        <v>2060.3772</v>
+        <v>2056.1912</v>
       </c>
       <c r="J14" s="1">
-        <v>125880.0027</v>
+        <v>125374.6479</v>
       </c>
       <c r="K14" s="1">
-        <v>123147.7948</v>
+        <v>123141.4841</v>
       </c>
       <c r="L14" s="1">
-        <v>13.2843</v>
+        <v>13.311</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123819.6256</v>
+        <v>123318.4567</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0473</v>
+        <v>0.047</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>15.3877</v>
       </c>
       <c r="C2" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D2" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>14.6367</v>
       </c>
       <c r="C3" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D3" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E3" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="F3" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9511.947899999999</v>
+        <v>9473.943600000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9511.947899999999</v>
+        <v>9473.943600000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0488</v>
+        <v>-0.0526</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>13.0061</v>
       </c>
       <c r="C4" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D4" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E4" s="1">
-        <v>1333.0838</v>
+        <v>1330.4207</v>
       </c>
       <c r="F4" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>17338.2214</v>
+        <v>17268.9937</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17338.2214</v>
+        <v>17268.9937</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>15.0028</v>
+        <v>15.0328</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>292.4414</v>
+        <v>291.8572</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9707.5586</v>
+        <v>-9708.1428</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.1114</v>
+        <v>-0.1132</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>13.835</v>
       </c>
       <c r="C5" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D5" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E5" s="1">
-        <v>2101.9538</v>
+        <v>2097.7508</v>
       </c>
       <c r="F5" s="1">
-        <v>743.9423</v>
+        <v>742.4136</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29080.5309</v>
+        <v>28964.2753</v>
       </c>
       <c r="I5" s="1">
-        <v>292.4414</v>
+        <v>291.8572</v>
       </c>
       <c r="J5" s="1">
-        <v>29372.9723</v>
+        <v>29256.1325</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.2724</v>
+        <v>14.301</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10292.4414</v>
+        <v>-10291.8572</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.07439999999999999</v>
+        <v>0.07290000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>14.4216</v>
       </c>
       <c r="C6" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D6" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E6" s="1">
-        <v>2845.8961</v>
+        <v>2840.1645</v>
       </c>
       <c r="F6" s="1">
-        <v>621.1256</v>
+        <v>633.7947</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>41042.3749</v>
+        <v>40877.919</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>41042.3749</v>
+        <v>40877.919</v>
       </c>
       <c r="K6" s="1">
-        <v>40292.4414</v>
+        <v>40291.8572</v>
       </c>
       <c r="L6" s="1">
-        <v>14.1581</v>
+        <v>14.1865</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8957.625099999999</v>
+        <v>-9158.650900000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0424</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>13.2404</v>
       </c>
       <c r="C7" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D7" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E7" s="1">
-        <v>3467.0217</v>
+        <v>3473.9592</v>
       </c>
       <c r="F7" s="1">
-        <v>833.991</v>
+        <v>817.1727</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>45904.754</v>
+        <v>45904.5495</v>
       </c>
       <c r="I7" s="1">
-        <v>1042.3749</v>
+        <v>841.3491</v>
       </c>
       <c r="J7" s="1">
-        <v>46947.1289</v>
+        <v>46745.8986</v>
       </c>
       <c r="K7" s="1">
-        <v>49250.0665</v>
+        <v>49450.5081</v>
       </c>
       <c r="L7" s="1">
-        <v>14.2053</v>
+        <v>14.2346</v>
       </c>
       <c r="M7" s="1">
         <v>0.4</v>
       </c>
       <c r="N7" s="1">
-        <v>1024.5226</v>
+        <v>1022.4592</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10017.8523</v>
+        <v>-9818.8899</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.08019999999999999</v>
+        <v>-0.08119999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>12.382</v>
       </c>
       <c r="C8" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D8" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E8" s="1">
-        <v>4301.0127</v>
+        <v>4291.1319</v>
       </c>
       <c r="F8" s="1">
-        <v>890.3669</v>
+        <v>888.4208</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>53255.1396</v>
+        <v>53026.3757</v>
       </c>
       <c r="I8" s="1">
-        <v>1024.5226</v>
+        <v>1022.4592</v>
       </c>
       <c r="J8" s="1">
-        <v>54279.6621</v>
+        <v>54048.8349</v>
       </c>
       <c r="K8" s="1">
-        <v>60292.4414</v>
+        <v>60291.8572</v>
       </c>
       <c r="L8" s="1">
-        <v>14.0182</v>
+        <v>14.0503</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11024.5226</v>
+        <v>-11022.4592</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0468</v>
+        <v>-0.0475</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>11.9583</v>
       </c>
       <c r="C9" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D9" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E9" s="1">
-        <v>5191.3796</v>
+        <v>5179.5527</v>
       </c>
       <c r="F9" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>62080.0746</v>
+        <v>61814.8543</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>62080.0746</v>
+        <v>61814.8543</v>
       </c>
       <c r="K9" s="1">
-        <v>71316.96400000001</v>
+        <v>71314.3164</v>
       </c>
       <c r="L9" s="1">
-        <v>13.7376</v>
+        <v>13.7684</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0342</v>
+        <v>-0.0349</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>12.2036</v>
       </c>
       <c r="C10" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D10" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E10" s="1">
-        <v>6027.6189</v>
+        <v>6014.1171</v>
       </c>
       <c r="F10" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>73558.6495</v>
+        <v>73247.1345</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>73558.6495</v>
+        <v>73247.1345</v>
       </c>
       <c r="K10" s="1">
-        <v>81316.96400000001</v>
+        <v>81314.3164</v>
       </c>
       <c r="L10" s="1">
-        <v>13.4907</v>
+        <v>13.5206</v>
       </c>
       <c r="M10" s="1">
         <v>0.4</v>
       </c>
       <c r="N10" s="1">
-        <v>1868.8967</v>
+        <v>1864.639</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8131.1033</v>
+        <v>-8135.361</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0205</v>
+        <v>0.0199</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>12.9136</v>
       </c>
       <c r="C11" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D11" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E11" s="1">
-        <v>6847.0492</v>
+        <v>6831.9056</v>
       </c>
       <c r="F11" s="1">
-        <v>896.7248</v>
+        <v>916.9318</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>88420.05439999999</v>
+        <v>88048.23299999999</v>
       </c>
       <c r="I11" s="1">
-        <v>1868.8967</v>
+        <v>1864.639</v>
       </c>
       <c r="J11" s="1">
-        <v>90288.95110000001</v>
+        <v>89912.872</v>
       </c>
       <c r="K11" s="1">
-        <v>91316.96400000001</v>
+        <v>91314.3164</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3367</v>
+        <v>13.3659</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11579.9456</v>
+        <v>-11864.639</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0805</v>
+        <v>0.0801</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>13.4338</v>
       </c>
       <c r="C12" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D12" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E12" s="1">
-        <v>7743.774</v>
+        <v>7748.8374</v>
       </c>
       <c r="F12" s="1">
-        <v>444.5271</v>
+        <v>455.893</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>104028.3112</v>
+        <v>103887.8881</v>
       </c>
       <c r="I12" s="1">
-        <v>288.9511</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>104317.2623</v>
+        <v>103887.8881</v>
       </c>
       <c r="K12" s="1">
-        <v>102896.9095</v>
+        <v>103178.9554</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2877</v>
+        <v>13.3154</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-5971.6888</v>
+        <v>-6136.6389</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0402</v>
+        <v>0.0398</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>12.9657</v>
       </c>
       <c r="C13" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D13" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E13" s="1">
-        <v>8188.3012</v>
+        <v>8204.7304</v>
       </c>
       <c r="F13" s="1">
-        <v>1066.8875</v>
+        <v>1068.9833</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>106167.0562</v>
+        <v>106167.5704</v>
       </c>
       <c r="I13" s="1">
-        <v>4317.2623</v>
+        <v>3863.3611</v>
       </c>
       <c r="J13" s="1">
-        <v>110484.3186</v>
+        <v>110030.9315</v>
       </c>
       <c r="K13" s="1">
-        <v>108868.5983</v>
+        <v>109315.5943</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2956</v>
+        <v>13.3235</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2090.819</v>
+        <v>2092.1861</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11742.1248</v>
+        <v>-11795.7237</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0335</v>
+        <v>-0.0339</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>13.3568</v>
       </c>
       <c r="C14" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D14" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E14" s="1">
-        <v>9255.188700000001</v>
+        <v>9273.7137</v>
       </c>
       <c r="F14" s="1">
-        <v>-9255.188700000001</v>
+        <v>-9273.7137</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123619.7043</v>
+        <v>123619.5304</v>
       </c>
       <c r="I14" s="1">
-        <v>2575.1376</v>
+        <v>2067.6374</v>
       </c>
       <c r="J14" s="1">
-        <v>126194.8418</v>
+        <v>125687.1678</v>
       </c>
       <c r="K14" s="1">
-        <v>122701.542</v>
+        <v>123203.5041</v>
       </c>
       <c r="L14" s="1">
-        <v>13.2576</v>
+        <v>13.2852</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123619.7043</v>
+        <v>123619.5304</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0474</v>
+        <v>0.0471</v>
       </c>
     </row>
   </sheetData>
@@ -2154,7 +2154,7 @@
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
@@ -2224,16 +2224,16 @@
         <v>15.3877</v>
       </c>
       <c r="C2" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D2" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>14.6367</v>
       </c>
       <c r="C3" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D3" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E3" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="F3" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9511.947899999999</v>
+        <v>9473.943600000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9511.947899999999</v>
+        <v>9473.943600000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0488</v>
+        <v>-0.0526</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>13.0061</v>
       </c>
       <c r="C4" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D4" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E4" s="1">
-        <v>1333.0838</v>
+        <v>1330.4207</v>
       </c>
       <c r="F4" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>17338.2214</v>
+        <v>17268.9937</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17338.2214</v>
+        <v>17268.9937</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>15.0028</v>
+        <v>15.0328</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>292.4414</v>
+        <v>291.8572</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9707.5586</v>
+        <v>-9708.1428</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.1114</v>
+        <v>-0.1132</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>13.835</v>
       </c>
       <c r="C5" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D5" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E5" s="1">
-        <v>2101.9538</v>
+        <v>2097.7508</v>
       </c>
       <c r="F5" s="1">
-        <v>743.9423</v>
+        <v>742.4136</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29080.5309</v>
+        <v>28964.2753</v>
       </c>
       <c r="I5" s="1">
-        <v>292.4414</v>
+        <v>291.8572</v>
       </c>
       <c r="J5" s="1">
-        <v>29372.9723</v>
+        <v>29256.1325</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.2724</v>
+        <v>14.301</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10292.4414</v>
+        <v>-10291.8572</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.07439999999999999</v>
+        <v>0.07290000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>14.4216</v>
       </c>
       <c r="C6" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D6" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E6" s="1">
-        <v>2845.8961</v>
+        <v>2840.1645</v>
       </c>
       <c r="F6" s="1">
-        <v>655.9696</v>
+        <v>668.7085</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>41042.3749</v>
+        <v>40877.919</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>41042.3749</v>
+        <v>40877.919</v>
       </c>
       <c r="K6" s="1">
-        <v>40292.4414</v>
+        <v>40291.8572</v>
       </c>
       <c r="L6" s="1">
-        <v>14.1581</v>
+        <v>14.1865</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9460.1314</v>
+        <v>-9663.171700000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0424</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>13.2404</v>
       </c>
       <c r="C7" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D7" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E7" s="1">
-        <v>3501.8657</v>
+        <v>3508.8729</v>
       </c>
       <c r="F7" s="1">
-        <v>796.0385</v>
+        <v>779.1442</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>46366.1025</v>
+        <v>46365.896</v>
       </c>
       <c r="I7" s="1">
-        <v>539.8686</v>
+        <v>336.8283</v>
       </c>
       <c r="J7" s="1">
-        <v>46905.9711</v>
+        <v>46702.7243</v>
       </c>
       <c r="K7" s="1">
-        <v>49752.5727</v>
+        <v>49955.0289</v>
       </c>
       <c r="L7" s="1">
-        <v>14.2074</v>
+        <v>14.2368</v>
       </c>
       <c r="M7" s="1">
         <v>0.4</v>
       </c>
       <c r="N7" s="1">
-        <v>1024.5226</v>
+        <v>1022.4592</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9515.346100000001</v>
+        <v>-9314.3691</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.081</v>
+        <v>-0.08210000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>12.382</v>
       </c>
       <c r="C8" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D8" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E8" s="1">
-        <v>4297.9042</v>
+        <v>4288.0171</v>
       </c>
       <c r="F8" s="1">
-        <v>890.3669</v>
+        <v>888.4208</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>53216.6502</v>
+        <v>52987.8853</v>
       </c>
       <c r="I8" s="1">
-        <v>1024.5226</v>
+        <v>1022.4592</v>
       </c>
       <c r="J8" s="1">
-        <v>54241.1727</v>
+        <v>54010.3446</v>
       </c>
       <c r="K8" s="1">
-        <v>60292.4414</v>
+        <v>60291.8572</v>
       </c>
       <c r="L8" s="1">
-        <v>14.0283</v>
+        <v>14.0605</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11024.5226</v>
+        <v>-11022.4592</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0468</v>
+        <v>-0.0475</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>11.9583</v>
       </c>
       <c r="C9" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D9" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E9" s="1">
-        <v>5188.2711</v>
+        <v>5176.4379</v>
       </c>
       <c r="F9" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>62042.9023</v>
+        <v>61777.6809</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>62042.9023</v>
+        <v>61777.6809</v>
       </c>
       <c r="K9" s="1">
-        <v>71316.96400000001</v>
+        <v>71314.3164</v>
       </c>
       <c r="L9" s="1">
-        <v>13.7458</v>
+        <v>13.7767</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0342</v>
+        <v>-0.0349</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>12.2036</v>
       </c>
       <c r="C10" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D10" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E10" s="1">
-        <v>6024.5104</v>
+        <v>6011.0023</v>
       </c>
       <c r="F10" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>73520.7147</v>
+        <v>73209.1986</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>73520.7147</v>
+        <v>73209.1986</v>
       </c>
       <c r="K10" s="1">
-        <v>81316.96400000001</v>
+        <v>81314.3164</v>
       </c>
       <c r="L10" s="1">
-        <v>13.4977</v>
+        <v>13.5276</v>
       </c>
       <c r="M10" s="1">
         <v>0.4</v>
       </c>
       <c r="N10" s="1">
-        <v>1867.7776</v>
+        <v>1863.5177</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8132.2224</v>
+        <v>-8136.4823</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0205</v>
+        <v>0.0199</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>12.9136</v>
       </c>
       <c r="C11" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D11" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E11" s="1">
-        <v>6843.9407</v>
+        <v>6828.7908</v>
       </c>
       <c r="F11" s="1">
-        <v>919.0139</v>
+        <v>916.8451</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>88379.9126</v>
+        <v>88008.08990000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1867.7776</v>
+        <v>1863.5177</v>
       </c>
       <c r="J11" s="1">
-        <v>90247.6902</v>
+        <v>89871.6076</v>
       </c>
       <c r="K11" s="1">
-        <v>91316.96400000001</v>
+        <v>91314.3164</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3427</v>
+        <v>13.372</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11867.7776</v>
+        <v>-11863.5177</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0805</v>
+        <v>0.0801</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>13.4338</v>
       </c>
       <c r="C12" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D12" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E12" s="1">
-        <v>7762.9546</v>
+        <v>7745.6359</v>
       </c>
       <c r="F12" s="1">
-        <v>633.1556</v>
+        <v>667.3205</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>104285.9791</v>
+        <v>103844.9663</v>
       </c>
       <c r="I12" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>104285.9791</v>
+        <v>103844.9663</v>
       </c>
       <c r="K12" s="1">
-        <v>103184.7415</v>
+        <v>103177.834</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2919</v>
+        <v>13.3208</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8505.686299999999</v>
+        <v>-8982.600899999999</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0403</v>
+        <v>0.0398</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>12.9657</v>
       </c>
       <c r="C13" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D13" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E13" s="1">
-        <v>8396.110199999999</v>
+        <v>8412.956399999999</v>
       </c>
       <c r="F13" s="1">
-        <v>886.5170000000001</v>
+        <v>848.0337</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>108861.4462</v>
+        <v>108861.9735</v>
       </c>
       <c r="I13" s="1">
-        <v>1494.3137</v>
+        <v>1017.3991</v>
       </c>
       <c r="J13" s="1">
-        <v>110355.7599</v>
+        <v>109879.3725</v>
       </c>
       <c r="K13" s="1">
-        <v>111690.4278</v>
+        <v>112160.435</v>
       </c>
       <c r="L13" s="1">
-        <v>13.3026</v>
+        <v>13.3319</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2095.9977</v>
+        <v>2091.3217</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9398.316000000001</v>
+        <v>-8926.0774</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0344</v>
+        <v>-0.0348</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>13.3568</v>
       </c>
       <c r="C14" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D14" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E14" s="1">
-        <v>9282.627200000001</v>
+        <v>9260.990100000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9282.627200000001</v>
+        <v>-9260.990100000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123986.1955</v>
+        <v>123449.924</v>
       </c>
       <c r="I14" s="1">
-        <v>2095.9977</v>
+        <v>2091.3217</v>
       </c>
       <c r="J14" s="1">
-        <v>126082.1932</v>
+        <v>125541.2457</v>
       </c>
       <c r="K14" s="1">
-        <v>123184.7415</v>
+        <v>123177.834</v>
       </c>
       <c r="L14" s="1">
-        <v>13.2705</v>
+        <v>13.3007</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123986.1955</v>
+        <v>123449.924</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0476</v>
+        <v>0.0472</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>15.3877</v>
       </c>
       <c r="C2" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D2" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>14.6367</v>
       </c>
       <c r="C3" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D3" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E3" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="F3" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9511.947899999999</v>
+        <v>9473.943600000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9511.947899999999</v>
+        <v>9473.943600000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0488</v>
+        <v>-0.0526</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>13.0061</v>
       </c>
       <c r="C4" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D4" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E4" s="1">
-        <v>1333.0838</v>
+        <v>1330.4207</v>
       </c>
       <c r="F4" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>17338.2214</v>
+        <v>17268.9937</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17338.2214</v>
+        <v>17268.9937</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>15.0028</v>
+        <v>15.0328</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>292.4414</v>
+        <v>291.8572</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9707.5586</v>
+        <v>-9708.1428</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.1114</v>
+        <v>-0.1132</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>13.835</v>
       </c>
       <c r="C5" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D5" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E5" s="1">
-        <v>2101.9538</v>
+        <v>2097.7508</v>
       </c>
       <c r="F5" s="1">
-        <v>743.9423</v>
+        <v>742.4136</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29080.5309</v>
+        <v>28964.2753</v>
       </c>
       <c r="I5" s="1">
-        <v>292.4414</v>
+        <v>291.8572</v>
       </c>
       <c r="J5" s="1">
-        <v>29372.9723</v>
+        <v>29256.1325</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.2724</v>
+        <v>14.301</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10292.4414</v>
+        <v>-10291.8572</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.07439999999999999</v>
+        <v>0.07290000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>14.4216</v>
       </c>
       <c r="C6" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D6" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E6" s="1">
-        <v>2845.8961</v>
+        <v>2840.1645</v>
       </c>
       <c r="F6" s="1">
-        <v>691.1629</v>
+        <v>692.0176</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>41042.3749</v>
+        <v>40877.919</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>41042.3749</v>
+        <v>40877.919</v>
       </c>
       <c r="K6" s="1">
-        <v>40292.4414</v>
+        <v>40291.8572</v>
       </c>
       <c r="L6" s="1">
-        <v>14.1581</v>
+        <v>14.1865</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9967.6752</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0424</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>13.2404</v>
       </c>
       <c r="C7" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D7" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E7" s="1">
-        <v>3537.059</v>
+        <v>3532.182</v>
       </c>
       <c r="F7" s="1">
-        <v>757.7056</v>
+        <v>753.7556</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>46832.076</v>
+        <v>46673.9002</v>
       </c>
       <c r="I7" s="1">
-        <v>32.3248</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>46864.4008</v>
+        <v>46673.9002</v>
       </c>
       <c r="K7" s="1">
-        <v>50260.1166</v>
+        <v>50291.8572</v>
       </c>
       <c r="L7" s="1">
-        <v>14.2096</v>
+        <v>14.2382</v>
       </c>
       <c r="M7" s="1">
         <v>0.4</v>
       </c>
       <c r="N7" s="1">
-        <v>1024.5226</v>
+        <v>1022.4592</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9007.8022</v>
+        <v>-8977.540800000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0819</v>
+        <v>-0.08260000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>12.382</v>
       </c>
       <c r="C8" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D8" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E8" s="1">
-        <v>4294.7646</v>
+        <v>4285.9376</v>
       </c>
       <c r="F8" s="1">
-        <v>890.3669</v>
+        <v>888.4208</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>53177.7749</v>
+        <v>52962.1884</v>
       </c>
       <c r="I8" s="1">
-        <v>1024.5226</v>
+        <v>1022.4592</v>
       </c>
       <c r="J8" s="1">
-        <v>54202.2975</v>
+        <v>53984.6476</v>
       </c>
       <c r="K8" s="1">
-        <v>60292.4414</v>
+        <v>60291.8572</v>
       </c>
       <c r="L8" s="1">
-        <v>14.0386</v>
+        <v>14.0674</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11024.5226</v>
+        <v>-11022.4592</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0468</v>
+        <v>-0.0475</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>11.9583</v>
       </c>
       <c r="C9" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D9" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E9" s="1">
-        <v>5185.1314</v>
+        <v>5174.3584</v>
       </c>
       <c r="F9" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>62005.3573</v>
+        <v>61752.8632</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>62005.3573</v>
+        <v>61752.8632</v>
       </c>
       <c r="K9" s="1">
-        <v>71316.96400000001</v>
+        <v>71314.3164</v>
       </c>
       <c r="L9" s="1">
-        <v>13.7541</v>
+        <v>13.7823</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0342</v>
+        <v>-0.0349</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>12.2036</v>
       </c>
       <c r="C10" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D10" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E10" s="1">
-        <v>6021.3707</v>
+        <v>6008.9227</v>
       </c>
       <c r="F10" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>73482.3995</v>
+        <v>73183.8719</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>73482.3995</v>
+        <v>73183.8719</v>
       </c>
       <c r="K10" s="1">
-        <v>81316.96400000001</v>
+        <v>81314.3164</v>
       </c>
       <c r="L10" s="1">
-        <v>13.5047</v>
+        <v>13.5323</v>
       </c>
       <c r="M10" s="1">
         <v>0.4</v>
       </c>
       <c r="N10" s="1">
-        <v>1866.6473</v>
+        <v>1862.769</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8133.3527</v>
+        <v>-8137.231</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0205</v>
+        <v>0.0199</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>12.9136</v>
       </c>
       <c r="C11" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D11" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E11" s="1">
-        <v>6840.801</v>
+        <v>6826.7113</v>
       </c>
       <c r="F11" s="1">
-        <v>918.9263999999999</v>
+        <v>916.7873</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>88339.3683</v>
+        <v>87981.2896</v>
       </c>
       <c r="I11" s="1">
-        <v>1866.6473</v>
+        <v>1862.769</v>
       </c>
       <c r="J11" s="1">
-        <v>90206.0156</v>
+        <v>89844.0586</v>
       </c>
       <c r="K11" s="1">
-        <v>91316.96400000001</v>
+        <v>91314.3164</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3489</v>
+        <v>13.376</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11866.6473</v>
+        <v>-11862.769</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0805</v>
+        <v>0.0801</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>13.4338</v>
       </c>
       <c r="C12" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D12" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E12" s="1">
-        <v>7759.7274</v>
+        <v>7743.4986</v>
       </c>
       <c r="F12" s="1">
-        <v>744.391</v>
+        <v>742.9034</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>104242.6258</v>
+        <v>103816.3108</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>104242.6258</v>
+        <v>103816.3108</v>
       </c>
       <c r="K12" s="1">
-        <v>103183.6113</v>
+        <v>103177.0854</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2973</v>
+        <v>13.3244</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0403</v>
+        <v>0.0398</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>12.9657</v>
       </c>
       <c r="C13" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D13" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E13" s="1">
-        <v>8504.118399999999</v>
+        <v>8486.402</v>
       </c>
       <c r="F13" s="1">
-        <v>771.2657</v>
+        <v>769.7222</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>110261.848</v>
+        <v>109812.3443</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>110261.848</v>
+        <v>109812.3443</v>
       </c>
       <c r="K13" s="1">
-        <v>113183.6113</v>
+        <v>113177.0854</v>
       </c>
       <c r="L13" s="1">
-        <v>13.3093</v>
+        <v>13.3363</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2095.1264</v>
+        <v>2090.7446</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7904.8736</v>
+        <v>-7909.2554</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0348</v>
+        <v>-0.0352</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>13.3568</v>
       </c>
       <c r="C14" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D14" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E14" s="1">
-        <v>9275.384099999999</v>
+        <v>9256.1242</v>
       </c>
       <c r="F14" s="1">
-        <v>-9275.384099999999</v>
+        <v>-9256.1242</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123889.4507</v>
+        <v>123385.061</v>
       </c>
       <c r="I14" s="1">
-        <v>2095.1264</v>
+        <v>2090.7446</v>
       </c>
       <c r="J14" s="1">
-        <v>125984.5771</v>
+        <v>125475.8056</v>
       </c>
       <c r="K14" s="1">
-        <v>123183.6113</v>
+        <v>123177.0854</v>
       </c>
       <c r="L14" s="1">
-        <v>13.2807</v>
+        <v>13.3076</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123889.4507</v>
+        <v>123385.061</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0476</v>
+        <v>0.0473</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>15.3877</v>
       </c>
       <c r="C2" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D2" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>14.6367</v>
       </c>
       <c r="C3" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D3" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E3" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="F3" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9511.947899999999</v>
+        <v>9473.943600000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9511.947899999999</v>
+        <v>9473.943600000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0488</v>
+        <v>-0.0526</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>13.0061</v>
       </c>
       <c r="C4" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D4" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E4" s="1">
-        <v>1333.0838</v>
+        <v>1330.4207</v>
       </c>
       <c r="F4" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>17338.2214</v>
+        <v>17268.9937</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17338.2214</v>
+        <v>17268.9937</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>15.0028</v>
+        <v>15.0328</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>292.4414</v>
+        <v>291.8572</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9707.5586</v>
+        <v>-9708.1428</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.1114</v>
+        <v>-0.1132</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>13.835</v>
       </c>
       <c r="C5" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D5" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E5" s="1">
-        <v>2101.9538</v>
+        <v>2097.7508</v>
       </c>
       <c r="F5" s="1">
-        <v>743.9423</v>
+        <v>742.4136</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29080.5309</v>
+        <v>28964.2753</v>
       </c>
       <c r="I5" s="1">
-        <v>292.4414</v>
+        <v>291.8572</v>
       </c>
       <c r="J5" s="1">
-        <v>29372.9723</v>
+        <v>29256.1325</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.2724</v>
+        <v>14.301</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10292.4414</v>
+        <v>-10291.8572</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.07439999999999999</v>
+        <v>0.07290000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>14.4216</v>
       </c>
       <c r="C6" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D6" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E6" s="1">
-        <v>2845.8961</v>
+        <v>2840.1645</v>
       </c>
       <c r="F6" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>41042.3749</v>
+        <v>40877.919</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>41042.3749</v>
+        <v>40877.919</v>
       </c>
       <c r="K6" s="1">
-        <v>40292.4414</v>
+        <v>40291.8572</v>
       </c>
       <c r="L6" s="1">
-        <v>14.1581</v>
+        <v>14.1865</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0424</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>13.2404</v>
       </c>
       <c r="C7" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D7" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E7" s="1">
-        <v>3539.3004</v>
+        <v>3532.182</v>
       </c>
       <c r="F7" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>46861.7532</v>
+        <v>46673.9002</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>46861.7532</v>
+        <v>46673.9002</v>
       </c>
       <c r="K7" s="1">
-        <v>50292.4414</v>
+        <v>50291.8572</v>
       </c>
       <c r="L7" s="1">
-        <v>14.2097</v>
+        <v>14.2382</v>
       </c>
       <c r="M7" s="1">
         <v>0.4</v>
       </c>
       <c r="N7" s="1">
-        <v>1024.5226</v>
+        <v>1022.4592</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8975.4774</v>
+        <v>-8977.540800000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0819</v>
+        <v>-0.08260000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>12.382</v>
       </c>
       <c r="C8" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D8" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E8" s="1">
-        <v>4294.5646</v>
+        <v>4285.9376</v>
       </c>
       <c r="F8" s="1">
-        <v>890.3669</v>
+        <v>888.4208</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>53175.299</v>
+        <v>52962.1884</v>
       </c>
       <c r="I8" s="1">
-        <v>1024.5226</v>
+        <v>1022.4592</v>
       </c>
       <c r="J8" s="1">
-        <v>54199.8216</v>
+        <v>53984.6476</v>
       </c>
       <c r="K8" s="1">
-        <v>60292.4414</v>
+        <v>60291.8572</v>
       </c>
       <c r="L8" s="1">
-        <v>14.0392</v>
+        <v>14.0674</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11024.5226</v>
+        <v>-11022.4592</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0468</v>
+        <v>-0.0475</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>11.9583</v>
       </c>
       <c r="C9" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D9" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E9" s="1">
-        <v>5184.9315</v>
+        <v>5174.3584</v>
       </c>
       <c r="F9" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>62002.9661</v>
+        <v>61752.8632</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>62002.9661</v>
+        <v>61752.8632</v>
       </c>
       <c r="K9" s="1">
-        <v>71316.96400000001</v>
+        <v>71314.3164</v>
       </c>
       <c r="L9" s="1">
-        <v>13.7547</v>
+        <v>13.7823</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0342</v>
+        <v>-0.0349</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>12.2036</v>
       </c>
       <c r="C10" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D10" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E10" s="1">
-        <v>6021.1707</v>
+        <v>6008.9227</v>
       </c>
       <c r="F10" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>73479.9593</v>
+        <v>73183.8719</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>73479.9593</v>
+        <v>73183.8719</v>
       </c>
       <c r="K10" s="1">
-        <v>81316.96400000001</v>
+        <v>81314.3164</v>
       </c>
       <c r="L10" s="1">
-        <v>13.5052</v>
+        <v>13.5323</v>
       </c>
       <c r="M10" s="1">
         <v>0.4</v>
       </c>
       <c r="N10" s="1">
-        <v>1866.5753</v>
+        <v>1862.769</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8133.4247</v>
+        <v>-8137.231</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0205</v>
+        <v>0.0199</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>12.9136</v>
       </c>
       <c r="C11" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D11" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E11" s="1">
-        <v>6840.6011</v>
+        <v>6826.7113</v>
       </c>
       <c r="F11" s="1">
-        <v>918.9208</v>
+        <v>916.7873</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>88336.7861</v>
+        <v>87981.2896</v>
       </c>
       <c r="I11" s="1">
-        <v>1866.5753</v>
+        <v>1862.769</v>
       </c>
       <c r="J11" s="1">
-        <v>90203.36139999999</v>
+        <v>89844.0586</v>
       </c>
       <c r="K11" s="1">
-        <v>91316.96400000001</v>
+        <v>91314.3164</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3493</v>
+        <v>13.376</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11866.5753</v>
+        <v>-11862.769</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0805</v>
+        <v>0.0801</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>13.4338</v>
       </c>
       <c r="C12" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D12" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E12" s="1">
-        <v>7759.5219</v>
+        <v>7743.4986</v>
       </c>
       <c r="F12" s="1">
-        <v>744.391</v>
+        <v>742.9034</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>104239.8647</v>
+        <v>103816.3108</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>104239.8647</v>
+        <v>103816.3108</v>
       </c>
       <c r="K12" s="1">
-        <v>103183.5393</v>
+        <v>103177.0854</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2977</v>
+        <v>13.3244</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0403</v>
+        <v>0.0398</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>12.9657</v>
       </c>
       <c r="C13" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D13" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E13" s="1">
-        <v>8503.912899999999</v>
+        <v>8486.402</v>
       </c>
       <c r="F13" s="1">
-        <v>771.2657</v>
+        <v>769.7222</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>110259.183</v>
+        <v>109812.3443</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>110259.183</v>
+        <v>109812.3443</v>
       </c>
       <c r="K13" s="1">
-        <v>113183.5393</v>
+        <v>113177.0854</v>
       </c>
       <c r="L13" s="1">
-        <v>13.3096</v>
+        <v>13.3363</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2095.0709</v>
+        <v>2090.7446</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7904.9291</v>
+        <v>-7909.2554</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0348</v>
+        <v>-0.0352</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>13.3568</v>
       </c>
       <c r="C14" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D14" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E14" s="1">
-        <v>9275.178599999999</v>
+        <v>9256.1242</v>
       </c>
       <c r="F14" s="1">
-        <v>-9275.178599999999</v>
+        <v>-9256.1242</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123886.7054</v>
+        <v>123385.061</v>
       </c>
       <c r="I14" s="1">
-        <v>2095.0709</v>
+        <v>2090.7446</v>
       </c>
       <c r="J14" s="1">
-        <v>125981.7763</v>
+        <v>125475.8056</v>
       </c>
       <c r="K14" s="1">
-        <v>123183.5393</v>
+        <v>123177.0854</v>
       </c>
       <c r="L14" s="1">
-        <v>13.281</v>
+        <v>13.3076</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123886.7054</v>
+        <v>123385.061</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0476</v>
+        <v>0.0473</v>
       </c>
     </row>
   </sheetData>
@@ -4453,8 +4453,8 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.2843</v>
+        <v>13.311</v>
       </c>
       <c r="D3" s="1">
-        <v>13.2576</v>
+        <v>13.2852</v>
       </c>
       <c r="E3" s="1">
-        <v>13.2705</v>
+        <v>13.3007</v>
       </c>
       <c r="F3" s="1">
-        <v>13.2807</v>
+        <v>13.3076</v>
       </c>
       <c r="G3" s="1">
-        <v>13.281</v>
+        <v>13.3076</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.1207</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0532</v>
+        <v>-0.06569999999999999</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0496</v>
+        <v>-0.0622</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0509</v>
+        <v>-0.0639</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0522</v>
+        <v>-0.06469999999999999</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0522</v>
+        <v>-0.06469999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1977</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2088</v>
+        <v>0.2099</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2089</v>
+        <v>0.21</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2093</v>
+        <v>0.2105</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2097</v>
+        <v>0.2107</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2097</v>
+        <v>0.2107</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.7136</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.3521</v>
+        <v>-0.4097</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.3347</v>
+        <v>-0.393</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.3404</v>
+        <v>-0.4</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.3458</v>
+        <v>-0.4036</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.346</v>
+        <v>-0.4036</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.093</v>
+        <v>0.0849</v>
       </c>
       <c r="D7" s="3">
-        <v>0.09810000000000001</v>
+        <v>0.0898</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0958</v>
+        <v>0.0871</v>
       </c>
       <c r="F7" s="3">
-        <v>0.094</v>
+        <v>0.0859</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0939</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5208.1719</v>
+        <v>5197.6753</v>
       </c>
       <c r="D8" s="1">
-        <v>5276.6796</v>
+        <v>5271.1415</v>
       </c>
       <c r="E8" s="1">
-        <v>5280.7393</v>
+        <v>5269.1557</v>
       </c>
       <c r="F8" s="1">
-        <v>5278.7377</v>
+        <v>5267.83</v>
       </c>
       <c r="G8" s="1">
-        <v>5278.6102</v>
+        <v>5267.83</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P52_KFSDIV.xlsx
+++ b/output/1Y_P52_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>6366.3739</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0201</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0284</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0211</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0205</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
